--- a/medicine/Handicap/Union_malienne_des_aveugles/Union_malienne_des_aveugles.xlsx
+++ b/medicine/Handicap/Union_malienne_des_aveugles/Union_malienne_des_aveugles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Union malienne des aveugles (UMAV) est une association malienne créée en 1972 sous l’appellation Association malienne pour la promotion sociale des aveugles[1] par Ismail Konaté, administrateur civil qui a perdu la vue à la suite d'un glaucome en 1964[2].
-L’UMAV s’est fixé quatre axes d’intervention[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Union malienne des aveugles (UMAV) est une association malienne créée en 1972 sous l’appellation Association malienne pour la promotion sociale des aveugles par Ismail Konaté, administrateur civil qui a perdu la vue à la suite d'un glaucome en 1964.
+L’UMAV s’est fixé quatre axes d’intervention :
 la prévention de la cécité ;
 la scolarisation des enfants aveugles  ;
 la réadaptation en milieu urbain ;
 la réadaptation en milieu rural.
-En 1973, est créé l’Institut des jeunes aveugles, établissement scolaire de premier et second cycle pour enfants et jeunes aveugles et mal-voyants, installé à Bamako dans le quartier Faladié. Les chanteurs maliens Amadou et Mariam ont fréquenté cet établissement[3].
-Le 25 avril 2009, une bibliothèque sonore, été réalisée par le bureau Multi-pays de l'Organisation des Nations unies pour l'éducation, la science et la culture (UNESCO) et le Lions Club Bamako Yeleen, a été inauguré dans les locaux de l’UMAV[4].
+En 1973, est créé l’Institut des jeunes aveugles, établissement scolaire de premier et second cycle pour enfants et jeunes aveugles et mal-voyants, installé à Bamako dans le quartier Faladié. Les chanteurs maliens Amadou et Mariam ont fréquenté cet établissement.
+Le 25 avril 2009, une bibliothèque sonore, été réalisée par le bureau Multi-pays de l'Organisation des Nations unies pour l'éducation, la science et la culture (UNESCO) et le Lions Club Bamako Yeleen, a été inauguré dans les locaux de l’UMAV.
 </t>
         </is>
       </c>
